--- a/scripts/data/uniq_lres_ca_removed.xlsx
+++ b/scripts/data/uniq_lres_ca_removed.xlsx
@@ -472,52 +472,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.3</v>
+        <v>2.81</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Partitiviridae</t>
+          <t>Tombusviridae</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Partitivirus</t>
+          <t>Carmovirus</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3es5</t>
+          <t>2zah</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.74</v>
+        <v>3.53</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sphaerolipoviridae</t>
+          <t>Hepadnaviridae</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Alphasphaerolipovirus</t>
+          <t>Orthohepadnavirus</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28d</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,104 +527,100 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6h9c</t>
+          <t>6ui6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.45</v>
+        <v>5.6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Albetovirus</t>
+          <t>Leviviridae</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tobacco albetovirus 1</t>
+          <t>Levivirus</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4v4m</t>
+          <t>7lge</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Papillomaviridae</t>
+          <t>Caliciviridae</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Deltapapillomavirus</t>
+          <t>Norovirus</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7d</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3iyj</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6ouc</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.3</v>
+        <v>28</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>Phycodnaviridae</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Senecavirus</t>
+          <t>Chlorovirus</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>pT169</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3cji</t>
+          <t>1m4x</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -635,21 +631,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cystoviridae</t>
+          <t>Birnaviridae</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cystovirus</t>
+          <t>Avibirnavirus</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -659,28 +655,32 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6hy0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>2gsy</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leviviridae</t>
+          <t>Secoviridae</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Levivirus</t>
+          <t>Nepovirus</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -690,121 +690,125 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7lge</t>
+          <t>2y26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nodaviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Denpendoparvovirus</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4nwv</t>
+          <t>6jct</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.89</v>
+        <v>3.5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Reoviridae</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Virus Like Particle</t>
+          <t>Phytoreovirus</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6nf9</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>1uf2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Reo CP-like</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Herpesviridae</t>
+          <t>Nanoparticles</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rhadinovirus</t>
+          <t>Nanoparticles</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6b43</t>
+          <t>7kq5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tombusviridae</t>
+          <t>Dicistroviridae</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dianthovirus</t>
+          <t>Cripavirus</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -814,94 +818,98 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6mrm</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>1b35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Totiviridae</t>
+          <t>Leviviridae</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Totivirus</t>
+          <t>Levivirus</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1m1c</t>
+          <t>1e6t</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Reo CP-like</t>
+          <t>Leviviridae-like</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Podoviridae</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>T7virus</t>
+          <t>Hepatovirus</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7l</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3j7w</t>
+          <t>6jhs</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.67</v>
+        <v>3.3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Enterovirus F</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -911,32 +919,28 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6t40</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6izl</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lavidaviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sputnikvirus</t>
+          <t>Dependoparvovirus</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>pT27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -946,125 +950,125 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3j26</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>6o9r</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Polyomaviridae</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Polyomavirus</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7d</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1sva</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>5mm2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Retroviridae</t>
+          <t>Siphoviridae</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Phietavirus</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7l</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6ssj</t>
+          <t>6b0x</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.5</v>
+        <v>3.74</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Caliciviridae</t>
+          <t>Siphoviridae</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lagovirus</t>
+          <t>P23virus</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7l</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3j1p</t>
+          <t>6i9e</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>Leviviridae</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Enterovirus A</t>
+          <t>Allolevivirus</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1074,28 +1078,32 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6z3q</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>5vly</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Leviviridae-like</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Phycodnaviridae</t>
+          <t>Reoviridae</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chlorovirus</t>
+          <t>Aquareovirus</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1105,32 +1113,28 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6ncl</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>3iyl</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.4</v>
+        <v>4.24</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Adenoviridae</t>
+          <t>Polyomaviridae</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Atadenovirus</t>
+          <t>Betapolyomavirus</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>pT25</t>
+          <t>7d</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1140,120 +1144,128 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6qi5</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>6gg0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Caliciviridae</t>
+          <t>Microviridae</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Calicivirus</t>
+          <t>Microvirus</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3m8l</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>2bpa</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.19</v>
+        <v>2.9</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Myoviridae</t>
+          <t>Bromoviridae</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Peduovirinae</t>
+          <t>Bromovirus</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7jw1</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>1yc6</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>Reoviridae</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Enterovirus</t>
+          <t>Reovirus</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4q4w</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>3iz3</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nanoviridae</t>
+          <t>Birnaviridae</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nanovirus</t>
+          <t>Aquabirnavirus</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1263,64 +1275,68 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6s44</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>3ide</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Synechococcaceae</t>
+          <t>Turriviridae</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Synechococcus</t>
+          <t>Alphaturrivirus</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>pT31</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6x8m</t>
+          <t>3j31</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Caliciviridae</t>
+          <t>Tombusviridae</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Norovirus</t>
+          <t>Aureusvirus</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1330,89 +1346,89 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6ouc</t>
+          <t>6mrl</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Togaviridae</t>
+          <t>Tectiviridae</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Alphavirus</t>
+          <t>Tectivirus</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>pT25</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6imm</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>1w8x</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>dsRNA viruses</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aphthovirus</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1qqp</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6s2c</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Birnaviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Avibirnavirus</t>
+          <t>Ambidensovirus</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1422,12 +1438,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2gsy</t>
+          <t>4mgu</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1442,117 +1458,105 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Papillomaviridae</t>
+          <t>Partitiviridae</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pipapillomavirus</t>
+          <t>Partitivirus</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7d</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>7ryj</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>3es5</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.9</v>
+        <v>3.26</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bromoviridae</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bromovirus</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7l</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1yc6</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>7eel</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.25</v>
+        <v>3.07</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tombusviridae</t>
+          <t>Adenoviridae</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Necrovirus</t>
+          <t>Mastadenovirus</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>pT25</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1c8n</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>7rd1</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.4</v>
+        <v>3.19</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bromoviridae</t>
+          <t>Nanoviridae</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Alfamovirus</t>
+          <t>Nanovirus</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1567,54 +1571,54 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>7epp</t>
+          <t>6s44</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Totiviridae</t>
+          <t>Herpesviridae</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Leishmaniavirus</t>
+          <t>Gammaherpesvirinae</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6y83</t>
+          <t>7bsi</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Virtovirus</t>
+          <t>Retroviridae</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tobacco virtovirus 1</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1629,156 +1633,152 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4oq8</t>
+          <t>6ssj</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Reoviridae</t>
+          <t>Dicistroviridae</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Rotavirus</t>
+          <t>Triatovirus</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>hrtvc2</t>
+          <t>5mqc</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Caliciviridae</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Norovirus</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6mzx</t>
+          <t>6ouu</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>Herpesviridae</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cardiovirus</t>
+          <t>Muromegalovirus</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5cfd</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6nhj</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.35</v>
+        <v>3.4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Flaviviridae</t>
+          <t>Adenoviridae</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Flavivirus</t>
+          <t>Atadenovirus</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>pT25</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7lch</t>
+          <t>6qi5</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Reoviridae</t>
+          <t>Siphoviridae</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Aquareovirus</t>
+          <t>Lambdavirus</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>7l</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1788,54 +1788,58 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3k1q</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>1ohg</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>HK97-like</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Saccharomycetales</t>
+          <t>Reoviridae</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Saccharomyces</t>
+          <t>Cypovirus</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6r24</t>
+          <t>3jb2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.91</v>
+        <v>2.5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sarthroviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Macronovirus</t>
+          <t>Penstyldensovirus</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1845,156 +1849,160 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6jja</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>3n7x</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>3.76</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hepadnaviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Avihepadnavirus</t>
+          <t>Dependoparvovirus</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6ygi</t>
+          <t>7wqp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Leviviridae</t>
+          <t>Siphoviridae</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Levivirus</t>
+          <t>Unclassified Siphovirus</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7l</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4zor</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Leviviridae-like</t>
-        </is>
-      </c>
+          <t>6r3a</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dsRNA viruses</t>
+          <t>Nodaviridae</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Betanodavirus</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6s2c</t>
+          <t>4wiz</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Birnaviridae</t>
+          <t>Papanivirus</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Avibirnavirus</t>
+          <t>Panicum papanivirus 1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>7vrn</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>1stm</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.7</v>
+        <v>3.12</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nodaviridae</t>
+          <t>Nanoparticles</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Alphanodavirus</t>
+          <t>Nanoparticles</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2004,103 +2012,99 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4ftb</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>7s4q</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Totiviridae</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Parvovirus</t>
+          <t>Totivirus</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1z14</t>
+          <t>1m1c</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>SJR, Vertical</t>
+          <t>Reo CP-like</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Bromoviridae</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Alfamovirus</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>pT21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>5oac</t>
+          <t>7epp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.03</v>
+        <v>3.5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Siphoviridae</t>
+          <t>Podoviridae</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lambdavirus</t>
+          <t>Bpp1virus</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7l</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2110,213 +2114,213 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>7vi9</t>
+          <t>3j4u</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8.4</v>
+        <v>2.95</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Siphoviridae</t>
+          <t>dsRNA viruses</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Phietavirus</t>
+          <t>Unclassified dsRNA viruses</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>6c22</t>
+          <t>7d0l</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sobemovirus</t>
+          <t>Picobirnaviridae</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sobemovirus</t>
+          <t>Picobirnavirus</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1ng0</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6z8d</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.26</v>
+        <v>6.5</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Caliciviridae</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lagovirus</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>7l</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>7eel</t>
+          <t>3j1p</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Podoviridae</t>
+          <t>Birnaviridae</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Schmidvirus</t>
+          <t>Avibirnavirus</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>7dn2</t>
+          <t>7vrn</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.89</v>
+        <v>2.1</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Podoviridae</t>
+          <t>Iflaviridae</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>P22virus</t>
+          <t>Iflavirus</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7l</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5l35</t>
+          <t>5lsf</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Podoviridae</t>
+          <t>Sobemovirus</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>p22-like Viruses</t>
+          <t>Sobemovirus</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7l</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3c5b</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>1x36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Thermococcales</t>
+          <t>Luteoviridae</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Pyrococcus</t>
+          <t>Polerovirus</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2326,64 +2330,64 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2e0z</t>
+          <t>6sco</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cystoviridae</t>
+          <t>Protogloboviridae</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cystovirus</t>
+          <t>Alphaprotoglobovirus</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4btg</t>
+          <t>6oj0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Partitiviridae</t>
+          <t>Reoviridae</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Deltapartitivirus</t>
+          <t>Rotavirus</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2393,59 +2397,59 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>7ncr</t>
+          <t>hrtvc2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Chrysoviridae</t>
+          <t>Myoviridae</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Chrysovirus</t>
+          <t>Myovirus</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3j3i</t>
+          <t>7f38</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.23</v>
+        <v>3.8</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>Tetraviridae</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Enterovirus E</t>
+          <t>Betatetravirus</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2455,23 +2459,27 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>6thd</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>2qqp</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Reoviridae</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ambidensovirus</t>
+          <t>Cypovirus</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2481,68 +2489,64 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>4mgu</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>3jay</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tombusviridae</t>
+          <t>Adenoviridae</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Aureusvirus</t>
+          <t>Mastadenovirus</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6mrl</t>
+          <t>1x9p</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Dicistroviridae</t>
+          <t>Leviviridae</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Aparavirus</t>
+          <t>MS2-like capsids</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2552,14 +2556,14 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>7bgk</t>
+          <t>6yfm</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2568,7 +2572,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Hepatovirus</t>
+          <t>Cardiovirus</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2583,248 +2587,248 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>6jhs</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+          <t>5cfd</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>28</v>
+        <v>3.4</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Phycodnaviridae</t>
+          <t>Hepeviridae</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Chlorovirus</t>
+          <t>Orthohepevirus</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>pT169</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1m4x</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6lat</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Reoviridae</t>
+          <t>Lavidaviridae</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Reovirus</t>
+          <t>Sputnikvirus</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>pT27</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3iz3</t>
+          <t>3j26</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.74</v>
+        <v>3.5</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Siphoviridae</t>
+          <t>Togaviridae</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>P23virus</t>
+          <t>Alphavirus</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7l</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>6i9e</t>
+          <t>6imm</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Leviviridae</t>
+          <t>Phycodnaviridae</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MS2-like capsids</t>
+          <t>Chlorovirus</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>169</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>6yfr</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+          <t>6ncl</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.22</v>
+        <v>2.9</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Nanoparticles</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Erythroparvovirus</t>
+          <t>Nanoparticles</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>6nn3</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>7ckc</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Caliciviridae</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Denpendoparvovirus</t>
+          <t>Norovirus</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>6jct</t>
+          <t>7k6v</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Reoviridae</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Dependoparvovirus</t>
+          <t>Rotavirus</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>7wqp</t>
+          <t>hrtvc1</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3.5</v>
+        <v>1.56</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Papillomaviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Alphapapillomavirus</t>
+          <t>Dependoparvovirus</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2834,103 +2838,95 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1dzl</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>7kfr</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Circoviridae</t>
+          <t>Herpesviridae</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Circovirus</t>
+          <t>Rhadinovirus</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>5j37</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6b43</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.29</v>
+        <v>3.1</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Albetovirus</t>
+          <t>Herpesviridae</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tobacco albetovirus 1</t>
+          <t>Alphaherpesvirinae</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4bcu</t>
+          <t>5zap</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Corticoviridae</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Dependoparvovirus</t>
+          <t>Corticovirus</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>pT21</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2940,58 +2936,54 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>6o9r</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>2w0c</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Herpesviridae</t>
+          <t>Marnaviridae</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Betaherpesvirinae</t>
+          <t>Sogarnavirus</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>6q1f</t>
+          <t>6shl</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.95</v>
+        <v>2.26</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>dsRNA viruses</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Unclassified dsRNA viruses</t>
+          <t>Protoparvovirus</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3001,33 +2993,33 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>7d0l</t>
+          <t>7m3m</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Iflaviridae</t>
+          <t>Tombusviridae</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Iflavirus</t>
+          <t>Machlomovirus</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3037,284 +3029,288 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>5lsf</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>3jb8</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Dicistroviridae</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cripavirus</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>pT21</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1b35</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>5oac</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.78</v>
+        <v>3.3</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>Papillomaviridae</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Enterovirus C</t>
+          <t>Pipapillomavirus</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>7d</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>7oj7</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+          <t>7ryj</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4.24</v>
+        <v>3</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Polyomaviridae</t>
+          <t>Luteoviridae</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Betapolyomavirus</t>
+          <t>Luteovirus</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7d</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>6gg0</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6scl</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Cystoviridae</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Parvovirus</t>
+          <t>Cystovirus</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1fpv</t>
+          <t>6hy0</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.26</v>
+        <v>3.4</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Caliciviridae</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Protoparvovirus</t>
+          <t>Calicivirus</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>7m3m</t>
+          <t>3m8l</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Polyomaviridae</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Densovirus</t>
+          <t>Alphapolyomavirus</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7d</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>6wh3</t>
+          <t>6zml</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Herpesviridae</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Muromegalovirus</t>
+          <t>Aphthovirus</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>6nhj</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
+          <t>1qqp</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3.4</v>
+        <v>3.53</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Dicistroviridae</t>
+          <t>Siphoviridae</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Triatovirus</t>
+          <t>Cyanophage Mic1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>5mqc</t>
+          <t>6j3q</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3.8</v>
+        <v>3.12</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tetraviridae</t>
+          <t>Nodaviridae</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Betatetravirus</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3324,32 +3320,28 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2qqp</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>5yl1</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.89</v>
+        <v>2.63</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Tombusviridae</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Tombusvirus</t>
+          <t>Enterovirus D</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3359,94 +3351,90 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>4llf</t>
+          <t>7opx</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Polyomaviridae</t>
+          <t>Retroviridae</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Alphapolyomavirus</t>
+          <t>Virus Like Particle</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>7d</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>6zml</t>
+          <t>7no0</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4.2</v>
+        <v>3.89</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tectiviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Tectivirus</t>
+          <t>Virus Like Particle</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>pT25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1w8x</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6nf9</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3.01</v>
+        <v>1.45</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>Virtovirus</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Hepatovirus</t>
+          <t>Tobacco virtovirus 1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3456,120 +3444,120 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>4qpi</t>
+          <t>4oq8</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3.5</v>
+        <v>8.4</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Reoviridae</t>
+          <t>Siphoviridae</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Phytoreovirus</t>
+          <t>Phietavirus</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1uf2</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Reo CP-like</t>
-        </is>
-      </c>
+          <t>6c22</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Papillomaviridae</t>
+          <t>Flaviviridae</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Alphapapillomavirus</t>
+          <t>Flavivirus</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7d</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>7kzf</t>
+          <t>7lch</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>Polyomaviridae</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Enterovirus B</t>
+          <t>Polyomavirus</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>7d</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>7w14</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
+          <t>1sva</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>3.12</v>
+        <v>2.96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Nodaviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Densovirus</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3579,68 +3567,64 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>5yl1</t>
+          <t>6wh3</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Tetraviridae</t>
+          <t>Reoviridae</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Omegatetravirus</t>
+          <t>Aquareovirus</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>3s6p</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>5zvt</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04</v>
+        <v>1.4</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Enterovirus</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3650,407 +3634,411 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>7a4j</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
+          <t>4q4w</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.1</v>
+        <v>2.49</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Herpesviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Alphaherpesvirinae</t>
+          <t>Dependoparovirus</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>5zap</t>
+          <t>7ltm</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Luteoviridae</t>
+          <t>Siphoviridae</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Luteovirus</t>
+          <t>Oshimavirus</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7l</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>6scl</t>
+          <t>6o3h</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3.12</v>
+        <v>3.7</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Siphoviridae</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Phietavirus</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>7s4q</t>
+          <t>6b23</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.56</v>
+        <v>4.34</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Retroviridae</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Dependoparvovirus</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>7kfr</t>
+          <t>6ssm</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.64</v>
+        <v>3.6</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Hepadnaviridae</t>
+          <t>Thermococcales</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Orthohepadnavirus</t>
+          <t>Pyrococcus</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>6hu4</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Retrotranscribing-like</t>
-        </is>
-      </c>
+          <t>2e0z</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Siphoviridae</t>
+          <t>dsRNA viruses</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Phietavirus</t>
+          <t>Unclassified dsRNA viruses</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>6b23</t>
+          <t>7d0k</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Reoviridae</t>
+          <t>Secoviridae</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Rotavirus</t>
+          <t>Comovirus</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>hrtvc1</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
+          <t>5fmo</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>3.3</v>
+        <v>3.22</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Leviviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Allolevivirus</t>
+          <t>Erythroparvovirus</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>5vly</t>
+          <t>6nn3</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Leviviridae-like</t>
+          <t>SJR, Vertical</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Myoviridae</t>
+          <t>Tombusviridae</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>T4virus</t>
+          <t>Panicovirus</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>5vf3</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr"/>
+          <t>4v99</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.49</v>
+        <v>4.5</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Reoviridae</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Dependoparovirus</t>
+          <t>Aquareovirus</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>7ltm</t>
+          <t>3k1q</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Secoviridae</t>
+          <t>Synechococcaceae</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Comovirus</t>
+          <t>Synechococcus</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>5fmo</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6x8m</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.9</v>
+        <v>2.29</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Reoviridae</t>
+          <t>Albetovirus</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Cypovirus</t>
+          <t>Tobacco albetovirus 1</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>3jb0</t>
+          <t>4bcu</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Siphoviridae</t>
+          <t>Myoviridae</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Phietavirus</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4065,54 +4053,54 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>6b0x</t>
+          <t>7kmx</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3.3</v>
+        <v>5.03</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Reoviridae</t>
+          <t>Siphoviridae</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Aquareovirus</t>
+          <t>Lambdavirus</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>5zvt</t>
+          <t>7vi9</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.76</v>
+        <v>3.65</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Totiviridae</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Bocaparvovirus</t>
+          <t>Leishmaniavirus</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4122,99 +4110,99 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>7lnk</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6y83</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Siphoviridae</t>
+          <t>Tetraviridae</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Tequintavirus</t>
+          <t>Omegatetravirus</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>6omc</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr"/>
+          <t>3s6p</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.76</v>
+        <v>4.5</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Leviviridae</t>
+          <t>Podoviridae</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MS2-like capsids</t>
+          <t>p22-like Viruses</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7l</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>6yfm</t>
+          <t>3c5b</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Adenoviridae</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Parvovirus</t>
+          <t>Mastadenovirus</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>pT25</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4224,14 +4212,10 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>4g0r</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6cgv</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4239,17 +4223,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Luteoviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Polerovirus</t>
+          <t>Parvovirus</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4259,23 +4243,23 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>6sco</t>
+          <t>1fpv</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Hepeviridae</t>
+          <t>Reoviridae</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Orthohepevirus</t>
+          <t>Dinovernavirus</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4285,64 +4269,64 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>6lat</t>
+          <t>6djy</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4.1</v>
+        <v>2.23</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Herpesviridae</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Gammaherpesvirinae</t>
+          <t>Enterovirus E</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>7bsi</t>
+          <t>6thd</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Tymoviridae</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tymovirus</t>
+          <t>Kobuvirus</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4352,7 +4336,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1ddl</t>
+          <t>5aoo</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4363,34 +4347,38 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Parvovirus</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>7l</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>6xgq</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr"/>
+          <t>4g0r</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4403,7 +4391,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Bpp1virus</t>
+          <t>T7virus</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4418,218 +4406,218 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>3j4u</t>
+          <t>3j7w</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.7</v>
+        <v>7.6</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sobemovirus</t>
+          <t>Retroviridae</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Sobemovirus</t>
+          <t>Virus Like Particle</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1x36</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>7no1</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Tymoviridae</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Marafivirus</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>6tik</t>
+          <t>7sqz</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3.1</v>
+        <v>1.78</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Reoviridae</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Cypovirus</t>
+          <t>Enterovirus C</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>3jb2</t>
+          <t>7oj7</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Rhinovirus</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>7ckc</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr"/>
+          <t>1aym</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Herpesviridae</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Betaherpesvirinae</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>6izl</t>
+          <t>6q1f</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Protogloboviridae</t>
+          <t>Tombusviridae</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Alphaprotoglobovirus</t>
+          <t>Dianthovirus</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>6oj0</t>
+          <t>6mrm</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3.53</v>
+        <v>4.2</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Siphoviridae</t>
+          <t>Papillomaviridae</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Cyanophage Mic1</t>
+          <t>Deltapapillomavirus</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7d</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4639,120 +4627,124 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>6j3q</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr"/>
+          <t>3iyj</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Papanivirus</t>
+          <t>Siphoviridae</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Panicum papanivirus 1</t>
+          <t>Tequintavirus</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1stm</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6omc</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>3.07</v>
+        <v>4.4</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Adenoviridae</t>
+          <t>Cystoviridae</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Mastadenovirus</t>
+          <t>Cystovirus</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>pT25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>7rd1</t>
+          <t>4btg</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Reoviridae</t>
+          <t>Nodaviridae</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Cypovirus</t>
+          <t>Alphanodavirus</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>3jay</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr"/>
+          <t>4ftb</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Caliciviridae</t>
+          <t>Leviviridae</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Sapovirus</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4767,85 +4759,85 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>7dod</t>
+          <t>2vf9</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Retroviridae</t>
+          <t>Podoviridae</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Virus Like Particle</t>
+          <t>Epsilon15-like</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7l</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>7no0</t>
+          <t>3j40</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Myoviridae</t>
+          <t>Nodaviridae</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Unclassified Nodaviridae</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>7l</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>7kmx</t>
+          <t>6jjc</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Chrysoviridae</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Penstyldensovirus</t>
+          <t>Chrysovirus</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4855,63 +4847,59 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>3n7x</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>3j3i</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Reoviridae</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Dinovernavirus</t>
+          <t>Parechovirus</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>6djy</t>
+          <t>6gv4</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8</v>
+        <v>2.76</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Caliciviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Vesivirus</t>
+          <t>Bocaparvovirus</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4926,120 +4914,124 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>4pb6</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr"/>
+          <t>7lnk</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Reoviridae</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Orbivirus</t>
+          <t>Enterovirus F4</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2btv</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Reo CP-like</t>
-        </is>
-      </c>
+          <t>7thx</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Caliciviridae</t>
+          <t>Hepadnaviridae</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Norovirus</t>
+          <t>Orthohepadnavirus</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>7k6v</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr"/>
+          <t>6hu4</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Retrotranscribing-like</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>7</v>
+        <v>4.03</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Corticoviridae</t>
+          <t>Rhodobacterales</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Corticovirus</t>
+          <t>Rhodobacteraceae</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>pT21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2w0c</t>
+          <t>6tsw</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tombusviridae</t>
+          <t>Sobemovirus</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Panicovirus</t>
+          <t>Sobemovirus</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5054,7 +5046,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>4v99</t>
+          <t>1ng0</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5065,83 +5057,91 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Marnaviridae</t>
+          <t>Papillomaviridae</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Sogarnavirus</t>
+          <t>Alphapapillomavirus</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>6shl</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr"/>
+          <t>1dzl</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Siphoviridae</t>
+          <t>Leviviridae</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Oshimavirus</t>
+          <t>Levivirus</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>7l</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>6o3h</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr"/>
+          <t>4zor</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Leviviridae-like</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2.7</v>
+        <v>2.89</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Secoviridae</t>
+          <t>Tombusviridae</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Nepovirus</t>
+          <t>Tombusvirus</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5151,28 +5151,28 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2y26</t>
+          <t>4llf</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>3.35</v>
+        <v>3.74</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Myoviridae</t>
+          <t>Sphaerolipoviridae</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Myovirus</t>
+          <t>Alphasphaerolipovirus</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>28d</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5182,54 +5182,54 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>7f38</t>
+          <t>6h9c</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2</v>
+        <v>2.87</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Secoviridae</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Cheravirus</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>7kq5</t>
+          <t>7chk</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>3.35</v>
+        <v>2.91</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Birnaviridae</t>
+          <t>Sarthroviridae</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Aquabirnavirus</t>
+          <t>Macronovirus</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5239,109 +5239,105 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>3ide</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6jja</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>4</v>
+        <v>4.19</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Totiviridae</t>
+          <t>Myoviridae</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Trichomonasvirus</t>
+          <t>Peduovirinae</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>7m12</t>
+          <t>7jw1</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Adenoviridae</t>
+          <t>Siphoviridae</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Mastadenovirus</t>
+          <t>Triavirus</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>pT25</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>6cgv</t>
+          <t>7rwz</t>
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Parvoviridae</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Bocaparvovirus</t>
+          <t>Senecavirus</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>7l0x</t>
+          <t>3cji</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5352,52 +5348,52 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Picobirnaviridae</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Picobirnavirus</t>
+          <t>Enterovirus A</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>6z8d</t>
+          <t>6z3q</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.79</v>
+        <v>3.5</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>dsRNA viruses</t>
+          <t>Reoviridae</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Unclassified dsRNA viruses</t>
+          <t>Orbivirus</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5407,28 +5403,32 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>7d0k</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
+          <t>2btv</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Reo CP-like</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Papanivirus</t>
+          <t>Tymoviridae</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Panicum papanivirus 1</t>
+          <t>Tymovirus</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>5cvz</t>
+          <t>1ddl</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5449,56 +5449,52 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Microviridae</t>
+          <t>Saccharomycetales</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Microvirus</t>
+          <t>Saccharomyces</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ssDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2bpa</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6r24</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.81</v>
+        <v>8</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tombusviridae</t>
+          <t>Caliciviridae</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Carmovirus</t>
+          <t>Vesivirus</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5508,54 +5504,54 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2zah</t>
+          <t>4pb6</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>Hepadnaviridae</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Enterovirus D</t>
+          <t>Avihepadnavirus</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>7opx</t>
+          <t>6ygi</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3.53</v>
+        <v>3.01</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Hepadnaviridae</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Orthohepadnavirus</t>
+          <t>Hepatovirus</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5565,74 +5561,74 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>6ui6</t>
+          <t>4qpi</t>
         </is>
       </c>
       <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>Reoviridae</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Parechovirus</t>
+          <t>Cypovirus</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>6gv4</t>
+          <t>3jb0</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Bromoviridae</t>
+          <t>Circoviridae</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Cucumovirus</t>
+          <t>Circovirus</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1f15</t>
+          <t>5j37</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -5643,11 +5639,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Leviviridae</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5657,69 +5653,69 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2vf9</t>
+          <t>6tik</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Tymoviridae</t>
+          <t>Nanoparticles</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Marafivirus</t>
+          <t>Nanoparticles</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>7sqz</t>
+          <t>6mzx</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>3.6</v>
+        <v>3.04</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Nodaviridae</t>
+          <t>Nanoparticles</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Betanodavirus</t>
+          <t>Nanoparticles</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5729,28 +5725,28 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>4wiz</t>
+          <t>7a4j</t>
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>Tombusviridae</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Kobuvirus</t>
+          <t>Necrovirus</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5760,7 +5756,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>5aoo</t>
+          <t>1c8n</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -5771,16 +5767,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>4.03</v>
+        <v>2.9</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Rhodobacterales</t>
+          <t>Caliciviridae</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Rhodobacteraceae</t>
+          <t>Sapovirus</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5790,59 +5786,59 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>6tsw</t>
+          <t>7dod</t>
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Reoviridae</t>
+          <t>Nodaviridae</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Aquareovirus</t>
+          <t>Betanodavirus</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>3iyl</t>
+          <t>4rft</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Bromoviridae</t>
+          <t>Caliciviridae</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Bromovirus</t>
+          <t>Vesivirus</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5857,63 +5853,63 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1za7</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>6gsh</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>7.6</v>
+        <v>2.51</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Retroviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Virus Like Particle</t>
+          <t>Bocaparvovirus</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>ssDNA</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>7no1</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr"/>
+          <t>7l0x</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.87</v>
+        <v>2.6</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Secoviridae</t>
+          <t>Leviviridae</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Cheravirus</t>
+          <t>MS2-like capsids</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5923,59 +5919,59 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>7chk</t>
+          <t>6yfr</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Reoviridae</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Orthoreovirus</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>5mm2</t>
+          <t>1ej6</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Leviviridae</t>
+          <t>Papanivirus</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Levivirus</t>
+          <t>Panicum papanivirus 1</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5985,187 +5981,195 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1e6t</t>
+          <t>5cvz</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Leviviridae-like</t>
+          <t>SJR, Vertical</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Siphoviridae</t>
+          <t>Partitiviridae</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Triavirus</t>
+          <t>Deltapartitivirus</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>7rwz</t>
+          <t>7ncr</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Siphoviridae</t>
+          <t>Bromoviridae</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Unclassified Siphovirus</t>
+          <t>Cucumovirus</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>7l</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>6r3a</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr"/>
+          <t>1f15</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>4.34</v>
+        <v>3.1</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Retroviridae</t>
+          <t>Papillomaviridae</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Alphapapillomavirus</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7d</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>6ssm</t>
+          <t>7kzf</t>
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3.1</v>
+        <v>2.89</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Nodaviridae</t>
+          <t>Podoviridae</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Betanodavirus</t>
+          <t>P22virus</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7l</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsDNA</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>4rft</t>
+          <t>5l35</t>
         </is>
       </c>
       <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Caliciviridae</t>
+          <t>Parvoviridae</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Norovirus</t>
+          <t>Parvovirus</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>6ouu</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr"/>
+          <t>1z14</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Adenoviridae</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Mastadenovirus</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7l</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6175,94 +6179,90 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1x9p</t>
+          <t>6xgq</t>
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Reoviridae</t>
+          <t>Dicistroviridae</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Orthoreovirus</t>
+          <t>Aparavirus</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>dsRNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1ej6</t>
+          <t>7bgk</t>
         </is>
       </c>
       <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tombusviridae</t>
+          <t>Totiviridae</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Machlomovirus</t>
+          <t>Trichomonasvirus</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>dsRNA</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>3jb8</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>7m12</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Turriviridae</t>
+          <t>Podoviridae</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Alphaturrivirus</t>
+          <t>Schmidvirus</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>pT31</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6272,94 +6272,94 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>3j31</t>
+          <t>7dn2</t>
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>3.45</v>
+        <v>2.7</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Siphoviridae</t>
+          <t>Bromoviridae</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Lambdavirus</t>
+          <t>Bromovirus</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>7l</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>dsDNA</t>
+          <t>ssRNA</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1ohg</t>
+          <t>1za7</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>HK97-like</t>
+          <t>SJR, Vertical</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.92</v>
+        <v>1.45</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Nodaviridae</t>
+          <t>Albetovirus</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Unclassified Nodaviridae</t>
+          <t>Tobacco albetovirus 1</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ssRNA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>6jjc</t>
+          <t>4v4m</t>
         </is>
       </c>
       <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Picornaviridae</t>
+          <t>Nodaviridae</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Rhinovirus</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>pT3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6369,32 +6369,28 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1aym</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>SJR, Vertical</t>
-        </is>
-      </c>
+          <t>4nwv</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Caliciviridae</t>
+          <t>Picornaviridae</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Vesivirus</t>
+          <t>Enterovirus F</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>pT3</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6404,28 +6400,32 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>6gsh</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr"/>
+          <t>6t40</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>SJR, Vertical</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Podoviridae</t>
+          <t>Myoviridae</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Epsilon15-like</t>
+          <t>T4virus</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>7l</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6435,14 +6435,14 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>3j40</t>
+          <t>5vf3</t>
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.96</v>
+        <v>2.2</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Enterovirus F4</t>
+          <t>Enterovirus B</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>7thx</t>
+          <t>7w14</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
